--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_WTV_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_WTV_control_by_struct.xlsx
@@ -483,15 +483,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004643186264003878</v>
+        <v>0.006175441140718767</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.0442, 0.0535]</t>
+          <t>[-0.0417, 0.054]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8522752615678567</v>
+        <v>0.8003711033711456</v>
       </c>
     </row>
     <row r="4">
@@ -632,15 +632,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09394911134602189</v>
+        <v>-0.09512052874184131</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.134, -0.0543]</t>
+          <t>[-0.134, -0.0565]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.999300220882796e-05</v>
+        <v>8.495677318193013e-06</v>
       </c>
     </row>
     <row r="4">
@@ -781,15 +781,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09107325778560563</v>
+        <v>0.09196970166440954</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.0409, 0.141]</t>
+          <t>[0.0429, 0.141]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.001121881895554575</v>
+        <v>0.0007182520830523875</v>
       </c>
     </row>
     <row r="4">
@@ -930,15 +930,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1568162457441097</v>
+        <v>-0.145926127660341</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.244, -0.0695]</t>
+          <t>[-0.233, -0.0584]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.002589360238940506</v>
+        <v>0.006535733284002317</v>
       </c>
     </row>
     <row r="4">
